--- a/PART 1 BIG O EXCEL GRAPHS/Assigment 1 Big O.xlsx
+++ b/PART 1 BIG O EXCEL GRAPHS/Assigment 1 Big O.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>n</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>time 7 G</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(log n)</t>
   </si>
   <si>
     <t>Rearange data:</t>
@@ -68,7 +77,7 @@
       <name val="'Arial'"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +100,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -142,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -164,6 +179,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -173,7 +191,7 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -206,7 +224,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 1 A vs. n</a:t>
+              <a:t>time 1 A vs. n ---&gt;Big O(n^2)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -247,11 +265,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="162523180"/>
-        <c:axId val="1510561505"/>
+        <c:axId val="1733127527"/>
+        <c:axId val="1282391802"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162523180"/>
+        <c:axId val="1733127527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,10 +301,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1510561505"/>
+        <c:crossAx val="1282391802"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1510561505"/>
+        <c:axId val="1282391802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +329,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>time 1 A</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </c:rich>
@@ -334,7 +352,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162523180"/>
+        <c:crossAx val="1733127527"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -358,7 +376,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 2 B vs. n</a:t>
+              <a:t>time 2 B vs. n  ---&gt;Big O(n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -399,11 +417,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1840085483"/>
-        <c:axId val="1403159056"/>
+        <c:axId val="420146153"/>
+        <c:axId val="1239782673"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1840085483"/>
+        <c:axId val="420146153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,10 +453,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1403159056"/>
+        <c:crossAx val="1239782673"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1403159056"/>
+        <c:axId val="1239782673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +481,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>time 2 B</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </c:rich>
@@ -486,7 +504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840085483"/>
+        <c:crossAx val="420146153"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -510,7 +528,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 3 C vs. n</a:t>
+              <a:t>time 3 C vs. n  ---&gt;Big O(log n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -551,11 +569,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="770656269"/>
-        <c:axId val="113010203"/>
+        <c:axId val="1422957538"/>
+        <c:axId val="336478741"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="770656269"/>
+        <c:axId val="1422957538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,10 +588,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113010203"/>
+        <c:crossAx val="336478741"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113010203"/>
+        <c:axId val="336478741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +622,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="770656269"/>
+        <c:crossAx val="1422957538"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -628,7 +646,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 4 D vs. n</a:t>
+              <a:t>time 4 D vs. n  ---&gt;Big O(n^2)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -669,11 +687,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1166264125"/>
-        <c:axId val="1862318636"/>
+        <c:axId val="1460625648"/>
+        <c:axId val="1023563640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1166264125"/>
+        <c:axId val="1460625648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +706,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1862318636"/>
+        <c:crossAx val="1023563640"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1862318636"/>
+        <c:axId val="1023563640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +740,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166264125"/>
+        <c:crossAx val="1460625648"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -746,7 +764,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 5 E1 vs. n</a:t>
+              <a:t>time 5 E1 vs. n  ---&gt;Big O(log n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -787,11 +805,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1636842268"/>
-        <c:axId val="590786172"/>
+        <c:axId val="1623081353"/>
+        <c:axId val="1547754459"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1636842268"/>
+        <c:axId val="1623081353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,10 +824,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590786172"/>
+        <c:crossAx val="1547754459"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590786172"/>
+        <c:axId val="1547754459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +858,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636842268"/>
+        <c:crossAx val="1623081353"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,7 +882,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 6 E2 vs. n</a:t>
+              <a:t>time 6 E2 vs. n   ---&gt;Big O(log n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -905,11 +923,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="831100895"/>
-        <c:axId val="1456776678"/>
+        <c:axId val="1139940554"/>
+        <c:axId val="1459965235"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831100895"/>
+        <c:axId val="1139940554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,10 +942,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456776678"/>
+        <c:crossAx val="1459965235"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1456776678"/>
+        <c:axId val="1459965235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +976,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831100895"/>
+        <c:crossAx val="1139940554"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -982,7 +1000,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 7F vs. n</a:t>
+              <a:t>time 7F vs. n   ---&gt;Big O(log n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1023,11 +1041,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1978591865"/>
-        <c:axId val="1612710010"/>
+        <c:axId val="850658402"/>
+        <c:axId val="1500874189"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1978591865"/>
+        <c:axId val="850658402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,10 +1060,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612710010"/>
+        <c:crossAx val="1500874189"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612710010"/>
+        <c:axId val="1500874189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1978591865"/>
+        <c:crossAx val="850658402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1100,7 +1118,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>time 7 G vs.n</a:t>
+              <a:t>time 7 G vs.n   ---&gt;Big O(n)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1141,11 +1159,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="351822017"/>
-        <c:axId val="2139055362"/>
+        <c:axId val="1634647911"/>
+        <c:axId val="1917250351"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="351822017"/>
+        <c:axId val="1634647911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,10 +1178,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139055362"/>
+        <c:crossAx val="1917250351"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139055362"/>
+        <c:axId val="1917250351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1212,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351822017"/>
+        <c:crossAx val="1634647911"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1209,16 +1227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1240,15 +1258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1269,16 +1287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1299,16 +1317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1330,15 +1348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1359,15 +1377,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1389,15 +1407,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1419,16 +1437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1504,44 +1522,44 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B13" si="1">B21</f>
-        <v>0.014462912</v>
+        <v>0.015765413</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:C13" si="2">B33-$B$13</f>
-        <v>0.00008848</v>
+        <v>0.000155725</v>
       </c>
       <c r="D2" s="3">
         <v>1000.0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E15" si="3">B45-$C$13</f>
-        <v>0.16507751</v>
+        <f t="shared" ref="E2:E15" si="3">B45-$C$13-$B$13</f>
+        <v>0.113471686</v>
       </c>
       <c r="F2" s="3">
         <v>1000.0</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G10" si="4">B59-$E$15</f>
-        <v>0.552212474</v>
+        <f t="shared" ref="G2:G10" si="4">B59-$E$15-$C$13-$B$13</f>
+        <v>8.646256631</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H10" si="5">B68-G$10</f>
-        <v>0.170232698</v>
+        <f t="shared" ref="H2:H10" si="5">B68-G$10-$E$15-$C$13-$B$13</f>
+        <v>18.1037746</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2:I10" si="6">B77-H$10</f>
-        <v>4.867861759</v>
+        <v>89.09577422</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J10" si="7">B86-I$10</f>
-        <v>0.175876294</v>
+        <v>18.14075829</v>
       </c>
       <c r="K2" s="3">
         <v>1000.0</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" ref="L2:L8" si="8">B95-J$10</f>
-        <v>5.22020221</v>
+        <v>89.43449116</v>
       </c>
     </row>
     <row r="3">
@@ -1550,44 +1568,44 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" si="1"/>
-        <v>0.029413878</v>
+        <v>0.038800363</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="2"/>
-        <v>0.000112901</v>
+        <v>0.000215184</v>
       </c>
       <c r="D3" s="3">
         <v>2000.0</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="3"/>
-        <v>0.165382942</v>
+        <v>0.120895179</v>
       </c>
       <c r="F3" s="3">
         <v>2000.0</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="4"/>
-        <v>1.074509566</v>
+        <v>17.7943195</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="5"/>
-        <v>0.170965311</v>
+        <v>18.10683071</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="6"/>
-        <v>4.870406438</v>
+        <v>89.10092058</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="7"/>
-        <v>0.178149518</v>
+        <v>18.14590643</v>
       </c>
       <c r="K3" s="3">
         <v>2000.0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="8"/>
-        <v>5.697486078</v>
+        <v>89.95596975</v>
       </c>
     </row>
     <row r="4">
@@ -1596,44 +1614,44 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="1"/>
-        <v>0.044306448</v>
+        <v>0.072718386</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="2"/>
-        <v>0.000133782</v>
+        <v>0.000296939</v>
       </c>
       <c r="D4" s="3">
         <v>4000.0</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="3"/>
-        <v>0.165573351</v>
+        <v>0.124796805</v>
       </c>
       <c r="F4" s="3">
         <v>4000.0</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="4"/>
-        <v>1.614865389</v>
+        <v>26.8926646</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="5"/>
-        <v>0.171472477</v>
+        <v>18.10922959</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="6"/>
-        <v>4.872933068</v>
+        <v>89.10608819</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="7"/>
-        <v>0.179508922</v>
+        <v>18.15231664</v>
       </c>
       <c r="K4" s="3">
         <v>4000.0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="8"/>
-        <v>6.645921807</v>
+        <v>90.80170406</v>
       </c>
     </row>
     <row r="5">
@@ -1642,44 +1660,44 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="1"/>
-        <v>0.057273696</v>
+        <v>0.140005146</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="2"/>
-        <v>0.000159264</v>
+        <v>0.000335871</v>
       </c>
       <c r="D5" s="3">
         <v>8000.0</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="3"/>
-        <v>0.165771899</v>
+        <v>0.128482539</v>
       </c>
       <c r="F5" s="3">
         <v>8000.0</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="4"/>
-        <v>2.157761999</v>
+        <v>36.71702668</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="5"/>
-        <v>0.172012912</v>
+        <v>18.11161006</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="6"/>
-        <v>4.874861574</v>
+        <v>89.11118748</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="7"/>
-        <v>0.180806036</v>
+        <v>18.15740957</v>
       </c>
       <c r="K5" s="3">
         <v>8000.0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="8"/>
-        <v>8.470552325</v>
+        <v>92.49437248</v>
       </c>
     </row>
     <row r="6">
@@ -1688,44 +1706,44 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="1"/>
-        <v>0.070734662</v>
+        <v>0.31197644</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="2"/>
-        <v>0.000179791</v>
+        <v>0.000376572</v>
       </c>
       <c r="D6" s="3">
         <v>16000.0</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="3"/>
-        <v>0.165966555</v>
+        <v>0.132082623</v>
       </c>
       <c r="F6" s="3">
         <v>16000.0</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="4"/>
-        <v>2.698817521</v>
+        <v>45.74443043</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="5"/>
-        <v>0.172503798</v>
+        <v>18.11256353</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="6"/>
-        <v>4.876229472</v>
+        <v>89.1166414</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="7"/>
-        <v>0.18208864</v>
+        <v>18.1624264</v>
       </c>
       <c r="K6" s="3">
         <v>16000.0</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="8"/>
-        <v>12.11375143</v>
+        <v>95.91510142</v>
       </c>
     </row>
     <row r="7">
@@ -1734,44 +1752,44 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>0.084201645</v>
+        <v>0.461581341</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="2"/>
-        <v>0.000199965</v>
+        <v>0.000437446</v>
       </c>
       <c r="D7" s="3">
         <v>32000.0</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="3"/>
-        <v>0.166153071</v>
+        <v>0.136237656</v>
       </c>
       <c r="F7" s="3">
         <v>32000.0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="4"/>
-        <v>3.23991799</v>
+        <v>54.78057922</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="5"/>
-        <v>0.172985482</v>
+        <v>18.11362564</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="6"/>
-        <v>4.877406608</v>
+        <v>89.12175415</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="7"/>
-        <v>0.18333939</v>
+        <v>18.16762373</v>
       </c>
       <c r="K7" s="3">
         <v>32000.0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="8"/>
-        <v>19.41337808</v>
+        <v>102.6934672</v>
       </c>
     </row>
     <row r="8">
@@ -1780,44 +1798,44 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>0.098199861</v>
+        <v>0.695024472</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="2"/>
-        <v>0.000232525</v>
+        <v>0.000473546</v>
       </c>
       <c r="D8" s="3">
         <v>64000.0</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="3"/>
-        <v>0.16656751</v>
+        <v>0.139629282</v>
       </c>
       <c r="F8" s="3">
         <v>64000.0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="4"/>
-        <v>3.778794431</v>
+        <v>64.04812937</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="5"/>
-        <v>0.173495126</v>
+        <v>18.11430057</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>4.878610995</v>
+        <v>89.12679434</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="7"/>
-        <v>0.184558288</v>
+        <v>18.17288547</v>
       </c>
       <c r="K8" s="3">
         <v>64000.0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="8"/>
-        <v>34.83334684</v>
+        <v>117.6650898</v>
       </c>
     </row>
     <row r="9">
@@ -1826,37 +1844,37 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>0.111290981</v>
+        <v>1.071496651</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="2"/>
-        <v>0.000264024</v>
+        <v>0.000512477</v>
       </c>
       <c r="D9" s="3">
         <v>128000.0</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="3"/>
-        <v>0.166989382</v>
+        <v>0.143112219</v>
       </c>
       <c r="F9" s="3">
         <v>128000.0</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>4.321857383</v>
+        <v>73.00773318</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="5"/>
-        <v>0.173643064</v>
+        <v>18.11485339</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="6"/>
-        <v>4.880023841</v>
+        <v>89.13203095</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="7"/>
-        <v>0.185775771</v>
+        <v>18.17788355</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1867,37 +1885,37 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>0.124281588</v>
+        <v>1.676372833</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>0.00032419</v>
+        <v>0.000605205</v>
       </c>
       <c r="D10" s="3">
         <v>256000.0</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="3"/>
-        <v>0.167321712</v>
+        <v>0.146610374</v>
       </c>
       <c r="F10" s="3">
         <v>256000.0</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>4.859975375</v>
+        <v>81.94730364</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="5"/>
-        <v>0.174125456</v>
+        <v>18.11541188</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="6"/>
-        <v>4.881248756</v>
+        <v>89.13723253</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="7"/>
-        <v>0.18698759</v>
+        <v>18.183083</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1908,18 +1926,18 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" si="1"/>
-        <v>0.137633901</v>
+        <v>2.668631164</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="2"/>
-        <v>0.000381525</v>
+        <v>0.000640951</v>
       </c>
       <c r="D11" s="3">
         <v>512000.0</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="3"/>
-        <v>0.167552113</v>
+        <v>0.150029959</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1934,21 +1952,24 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
-        <v>0.15100568</v>
+        <v>4.284624715</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="2"/>
-        <v>0.00041444</v>
+        <v>0.000680236</v>
       </c>
       <c r="D12" s="3">
         <v>1024000.0</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="3"/>
-        <v>0.167746061</v>
+        <v>0.154221092</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <f>count(G2:G10)</f>
+        <v>9</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1960,18 +1981,18 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>0.164188111</v>
+        <v>6.94824188</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="2"/>
-        <v>0.000450186</v>
+        <v>0.000707134</v>
       </c>
       <c r="D13" s="3">
         <v>2048000.0</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="3"/>
-        <v>0.167871349</v>
+        <v>0.157856569</v>
       </c>
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
@@ -1988,7 +2009,7 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="3"/>
-        <v>0.16798071</v>
+        <v>0.161367466</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
@@ -2005,7 +2026,7 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" si="3"/>
-        <v>0.168084762</v>
+        <v>0.164950916</v>
       </c>
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
@@ -2014,100 +2035,109 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16">
-      <c r="G16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="M16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
-      <c r="G17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18">
-      <c r="G18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" ht="30.75">
-      <c r="A19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.014462912</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
+      <c r="B21" s="10">
+        <v>0.015765413</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
-      <c r="B22" s="11">
-        <v>0.029413878</v>
+      <c r="B22" s="12">
+        <v>0.038800363</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6"/>
-      <c r="B23" s="11">
-        <v>0.044306448</v>
+      <c r="B23" s="12">
+        <v>0.072718386</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
-      <c r="B24" s="11">
-        <v>0.057273696</v>
+      <c r="B24" s="12">
+        <v>0.140005146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6"/>
-      <c r="B25" s="11">
-        <v>0.070734662</v>
+      <c r="B25" s="12">
+        <v>0.31197644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6"/>
-      <c r="B26" s="11">
-        <v>0.084201645</v>
+      <c r="B26" s="12">
+        <v>0.461581341</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6"/>
-      <c r="B27" s="11">
-        <v>0.098199861</v>
+      <c r="B27" s="12">
+        <v>0.695024472</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="6"/>
-      <c r="B28" s="11">
-        <v>0.111290981</v>
+      <c r="B28" s="12">
+        <v>1.071496651</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6"/>
-      <c r="B29" s="11">
-        <v>0.124281588</v>
+      <c r="B29" s="12">
+        <v>1.676372833</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
-      <c r="B30" s="11">
-        <v>0.137633901</v>
+      <c r="B30" s="12">
+        <v>2.668631164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6"/>
-      <c r="B31" s="11">
-        <v>0.15100568</v>
+      <c r="B31" s="12">
+        <v>4.284624715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6"/>
-      <c r="B32" s="11">
-        <v>0.164188111</v>
+      <c r="B32" s="12">
+        <v>6.94824188</v>
       </c>
     </row>
     <row r="33">
@@ -2115,63 +2145,72 @@
         <v>2</v>
       </c>
       <c r="B33" s="2">
-        <v>0.164276591</v>
+        <v>6.948397605</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="4">
-        <v>0.164301012</v>
+        <v>6.948457064</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="4">
-        <v>0.164321893</v>
+        <v>6.948538819</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="4">
-        <v>0.164347375</v>
+        <v>6.948577751</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="4">
-        <v>0.164367902</v>
+        <v>6.948618452</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="4">
-        <v>0.164388076</v>
+        <v>6.948679326</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="4">
-        <v>0.164420636</v>
+        <v>6.948715426</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="4">
-        <v>0.164452135</v>
+        <v>6.948754357</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4">
-        <v>0.164512301</v>
+        <v>6.948847085</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4">
-        <v>0.164569636</v>
+        <v>6.948882831</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="4">
-        <v>0.164602551</v>
-      </c>
-      <c r="N43" s="12"/>
+        <v>6.948922116</v>
+      </c>
+      <c r="N43" s="13"/>
     </row>
     <row r="44">
       <c r="B44" s="4">
-        <v>0.164638297</v>
+        <v>6.948949014</v>
       </c>
     </row>
     <row r="45">
@@ -2179,72 +2218,78 @@
         <v>3</v>
       </c>
       <c r="B45" s="2">
-        <v>0.165527696</v>
+        <v>7.0624207</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4">
-        <v>0.165833128</v>
+        <v>7.069844193</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="4">
-        <v>0.166023537</v>
+        <v>7.073745819</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="4">
-        <v>0.166222085</v>
+        <v>7.077431553</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="4">
-        <v>0.166416741</v>
+        <v>7.081031637</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="4">
-        <v>0.166603257</v>
+        <v>7.08518667</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="4">
-        <v>0.167017696</v>
+        <v>7.088578296</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="4">
-        <v>0.167439568</v>
+        <v>7.092061233</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="4">
-        <v>0.167771898</v>
+        <v>7.095559388</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="4">
-        <v>0.168002299</v>
+        <v>7.098978973</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4">
-        <v>0.168196247</v>
+        <v>7.103170106</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4">
-        <v>0.168321535</v>
+        <v>7.106805583</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="13">
-        <v>0.168430896</v>
+      <c r="B57" s="14">
+        <v>7.11031648</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="13">
-        <v>0.168534948</v>
+      <c r="B58" s="14">
+        <v>7.11389993</v>
       </c>
     </row>
     <row r="59">
@@ -2252,47 +2297,47 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>0.720297236</v>
+        <v>15.760156561</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="4">
-        <v>1.242594328</v>
+        <v>24.908219427</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="4">
-        <v>1.782950151</v>
+        <v>34.006564527</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="4">
-        <v>2.325846761</v>
+        <v>43.830926611</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="4">
-        <v>2.866902283</v>
+        <v>52.858330363</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="4">
-        <v>3.408002752</v>
+        <v>61.89447915</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="4">
-        <v>3.946879193</v>
+        <v>71.162029298</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="4">
-        <v>4.489942145</v>
+        <v>80.121633105</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="4">
-        <v>5.028060137</v>
+        <v>89.061203565</v>
       </c>
     </row>
     <row r="68">
@@ -2300,47 +2345,47 @@
         <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>5.030208073</v>
+        <v>107.164978168</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="4">
-        <v>5.030940686</v>
+        <v>107.168034277</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="4">
-        <v>5.031447852</v>
+        <v>107.170433153</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="4">
-        <v>5.031988287</v>
+        <v>107.172813626</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="4">
-        <v>5.032479173</v>
+        <v>107.17376709</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="4">
-        <v>5.032960857</v>
+        <v>107.174829207</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="4">
-        <v>5.033470501</v>
+        <v>107.175504134</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="4">
-        <v>5.033618439</v>
+        <v>107.176056959</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="4">
-        <v>5.034100831</v>
+        <v>107.176615446</v>
       </c>
     </row>
     <row r="77">
@@ -2348,47 +2393,47 @@
         <v>6</v>
       </c>
       <c r="B77" s="2">
-        <v>5.041987215</v>
+        <v>107.211186099</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="4">
-        <v>5.044531894</v>
+        <v>107.216332465</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="4">
-        <v>5.047058524</v>
+        <v>107.221500066</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="4">
-        <v>5.04898703</v>
+        <v>107.22659936</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="4">
-        <v>5.050354928</v>
+        <v>107.232053284</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="4">
-        <v>5.051532064</v>
+        <v>107.237166027</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="4">
-        <v>5.052736451</v>
+        <v>107.242206216</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="4">
-        <v>5.054149297</v>
+        <v>107.247442832</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="4">
-        <v>5.055374212</v>
+        <v>107.25264441</v>
       </c>
     </row>
     <row r="86">
@@ -2396,47 +2441,47 @@
         <v>7</v>
       </c>
       <c r="B86" s="2">
-        <v>5.05712505</v>
+        <v>107.277990819</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="4">
-        <v>5.059398274</v>
+        <v>107.283138954</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="4">
-        <v>5.060757678</v>
+        <v>107.289549172</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="4">
-        <v>5.062054792</v>
+        <v>107.294642096</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="4">
-        <v>5.063337396</v>
+        <v>107.299658926</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="4">
-        <v>5.064588146</v>
+        <v>107.304856257</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="4">
-        <v>5.065807044</v>
+        <v>107.310118001</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="4">
-        <v>5.067024527</v>
+        <v>107.315116074</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="4">
-        <v>5.068236346</v>
+        <v>107.320315528</v>
       </c>
     </row>
     <row r="95">
@@ -2444,37 +2489,37 @@
         <v>8</v>
       </c>
       <c r="B95" s="2">
-        <v>5.4071898</v>
+        <v>107.617574162</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="4">
-        <v>5.884473668</v>
+        <v>108.139052745</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="4">
-        <v>6.832909397</v>
+        <v>108.984787058</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="4">
-        <v>8.657539915</v>
+        <v>110.677455478</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="4">
-        <v>12.300739019</v>
+        <v>114.098184421</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="4">
-        <v>19.60036567</v>
+        <v>120.876550218</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="4">
-        <v>35.020334433</v>
+        <v>135.84817283</v>
       </c>
     </row>
   </sheetData>
